--- a/result0524.xlsx
+++ b/result0524.xlsx
@@ -5,321 +5,458 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="915" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="100">
-  <si>
-    <t xml:space="preserve">No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FCNN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRNN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">demb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dcommon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gdp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">projectdp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is-padded</t>
-  </si>
-  <si>
-    <t xml:space="preserve">expnum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Epoch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vdescription</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Train</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tdescription</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conclusion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exp01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cifar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Con</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1W</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0523exp01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E6 descend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ascend until E18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tfbaseline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exp02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0523exp02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ascending</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tfbaseline_fixq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1w</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asending</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1w,3w,4w</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exp03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0523exp03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E2 descend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E7 descend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exp04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3w</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0523exp04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E1 decscend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exp05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4w</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0523exp05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50 Epoch used 20 min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exp06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0523exp06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exp07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0523exp07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exp08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0523exp08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E50=0.695 E104=0.699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accuracy improved with bigger dataset.Netowrk is not complex enough.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Same setting with 4w</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exp09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0523exp09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E33 descending</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exp10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0523exp10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E0 descending to 0.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E17 descending</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exp11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exp12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exp13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exp14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Train not powerful enough</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50 epoch used 10 min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">get 4w </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">check use mycifar or tutorialcifar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fixed-tutorialcifar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0524exp07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E34 keep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ascend until ..Keep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tfbaseline_fiximg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0524exp09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tfbaseline_fiximgandq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check RNN-demb=50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check RNN-demb=100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F-myCifar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E5 descending to 0.633</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="139">
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>FCNN</t>
+  </si>
+  <si>
+    <t>FRNN</t>
+  </si>
+  <si>
+    <t>WE</t>
+  </si>
+  <si>
+    <t>Pool</t>
+  </si>
+  <si>
+    <t>demb</t>
+  </si>
+  <si>
+    <t>dq</t>
+  </si>
+  <si>
+    <t>dcommon</t>
+  </si>
+  <si>
+    <t>gdp</t>
+  </si>
+  <si>
+    <t>projectdp</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>Is-padded</t>
+  </si>
+  <si>
+    <t>expnum</t>
+  </si>
+  <si>
+    <t>Epoch</t>
+  </si>
+  <si>
+    <t>Valid</t>
+  </si>
+  <si>
+    <t>Vdescription</t>
+  </si>
+  <si>
+    <t>Train</t>
+  </si>
+  <si>
+    <t>Tdescription</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>Conclusion</t>
+  </si>
+  <si>
+    <t>exp01</t>
+  </si>
+  <si>
+    <t>Cifar</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>Con</t>
+  </si>
+  <si>
+    <t>1W</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>0523exp01</t>
+  </si>
+  <si>
+    <t>E6 descend</t>
+  </si>
+  <si>
+    <t>Ascend until E18</t>
+  </si>
+  <si>
+    <t>tfbaseline</t>
+  </si>
+  <si>
+    <t>exp02</t>
+  </si>
+  <si>
+    <t>0523exp02</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>Ascending</t>
+  </si>
+  <si>
+    <t>tfbaseline_fixq</t>
+  </si>
+  <si>
+    <t>1w</t>
+  </si>
+  <si>
+    <t>E8</t>
+  </si>
+  <si>
+    <t>Asending</t>
+  </si>
+  <si>
+    <t>1w,3w,4w</t>
+  </si>
+  <si>
+    <t>exp03</t>
+  </si>
+  <si>
+    <t>0523exp03</t>
+  </si>
+  <si>
+    <t>E2 descend</t>
+  </si>
+  <si>
+    <t>E7 descend</t>
+  </si>
+  <si>
+    <t>exp04</t>
+  </si>
+  <si>
+    <t>3w</t>
+  </si>
+  <si>
+    <t>0523exp04</t>
+  </si>
+  <si>
+    <t>E1 decscend</t>
+  </si>
+  <si>
+    <t>E14</t>
+  </si>
+  <si>
+    <t>exp05</t>
+  </si>
+  <si>
+    <t>4w</t>
+  </si>
+  <si>
+    <t>0523exp05</t>
+  </si>
+  <si>
+    <t>E13</t>
+  </si>
+  <si>
+    <t>50 Epoch used 20 min</t>
+  </si>
+  <si>
+    <t>exp06</t>
+  </si>
+  <si>
+    <t>0523exp06</t>
+  </si>
+  <si>
+    <t>exp07</t>
+  </si>
+  <si>
+    <t>0523exp07</t>
+  </si>
+  <si>
+    <t>exp08</t>
+  </si>
+  <si>
+    <t>0523exp08</t>
+  </si>
+  <si>
+    <t>E50=0.695 E104=0.699</t>
+  </si>
+  <si>
+    <t>Accuracy improved with bigger dataset.Netowrk is not complex enough.</t>
+  </si>
+  <si>
+    <t>Same setting with 4w</t>
+  </si>
+  <si>
+    <t>exp09</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>0523exp09</t>
+  </si>
+  <si>
+    <t>E33 descending</t>
+  </si>
+  <si>
+    <t>exp10</t>
+  </si>
+  <si>
+    <t>0523exp10</t>
+  </si>
+  <si>
+    <t>E0 descending to 0.4</t>
+  </si>
+  <si>
+    <t>E17 descending</t>
+  </si>
+  <si>
+    <t>exp11</t>
+  </si>
+  <si>
+    <t>exp12</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>exp13</t>
+  </si>
+  <si>
+    <t>exp14</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mat 24</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">th</t>
+    </r>
+  </si>
+  <si>
+    <t>RNN</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Train not powerful enough</t>
+  </si>
+  <si>
+    <t>50 epoch used 10 min</t>
+  </si>
+  <si>
+    <t>get 4w</t>
+  </si>
+  <si>
+    <t>E0</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>E34</t>
+  </si>
+  <si>
+    <t>check use mycifar or tutorialcifar</t>
+  </si>
+  <si>
+    <t>Fixed-tutorialcifar</t>
+  </si>
+  <si>
+    <t>0524exp07</t>
+  </si>
+  <si>
+    <t>&lt;100</t>
+  </si>
+  <si>
+    <t>E34 keep</t>
+  </si>
+  <si>
+    <t>Ascend until ..Keep</t>
+  </si>
+  <si>
+    <t>tfbaseline_fiximg</t>
+  </si>
+  <si>
+    <t>0524exp09</t>
+  </si>
+  <si>
+    <t>E23</t>
+  </si>
+  <si>
+    <t>E50</t>
+  </si>
+  <si>
+    <t>tfbaseline_fiximgandq</t>
+  </si>
+  <si>
+    <t>Check RNN-demb=50</t>
+  </si>
+  <si>
+    <t>0524exp13</t>
+  </si>
+  <si>
+    <t>E41 generally normal,E45=0.638.descending to 0.615</t>
+  </si>
+  <si>
+    <t>E49 descending to 0.633</t>
+  </si>
+  <si>
+    <t>0524exp14</t>
+  </si>
+  <si>
+    <t>E69</t>
+  </si>
+  <si>
+    <t>E8 descending to E56 =0.633</t>
+  </si>
+  <si>
+    <t>exp15</t>
+  </si>
+  <si>
+    <t>0524exp15</t>
+  </si>
+  <si>
+    <t>E5,E21=0.615</t>
+  </si>
+  <si>
+    <t>E3 descending to E38=0.633</t>
+  </si>
+  <si>
+    <t>exp16</t>
+  </si>
+  <si>
+    <t>0524exp16</t>
+  </si>
+  <si>
+    <t>Good.E107max,E28=0.657,E13=E20=0.654,</t>
+  </si>
+  <si>
+    <t>E3 descending to E13=0.633</t>
+  </si>
+  <si>
+    <t>Strange.Train stop but valid keep good.</t>
+  </si>
+  <si>
+    <t>exp17</t>
+  </si>
+  <si>
+    <t>Mul</t>
+  </si>
+  <si>
+    <t>0524exp17</t>
+  </si>
+  <si>
+    <t>E0 descending</t>
+  </si>
+  <si>
+    <t>E50 keep 0.688 util finish</t>
+  </si>
+  <si>
+    <t>exp18</t>
+  </si>
+  <si>
+    <t>0524exp18</t>
+  </si>
+  <si>
+    <t>E100 ascending</t>
+  </si>
+  <si>
+    <t>exp19</t>
+  </si>
+  <si>
+    <t>0524exp19</t>
+  </si>
+  <si>
+    <t>E7</t>
+  </si>
+  <si>
+    <t>Ascend until</t>
+  </si>
+  <si>
+    <t>exp20</t>
+  </si>
+  <si>
+    <t>0524exp20</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>Check RNN-demb=100</t>
+  </si>
+  <si>
+    <t>0524exp12</t>
+  </si>
+  <si>
+    <t>E15 descending to 0.633</t>
+  </si>
+  <si>
+    <t>E31 descending to 0.633</t>
+  </si>
+  <si>
+    <t>F-myCifar</t>
+  </si>
+  <si>
+    <t>E94 keep</t>
+  </si>
+  <si>
+    <t>&lt;50</t>
+  </si>
+  <si>
+    <t>E5 descending to 0.633</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">May 24</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">th</t>
+    </r>
+  </si>
+  <si>
+    <t>python tfbaseline_fiximgandq.py  --data-root='../data/shapes_control-3x' –imgfeature-prefix='../data/shapes_control-3x/cifarfeatures' –expnum='exp10' –dembd=100 –dq=256</t>
+  </si>
+  <si>
+    <t>python tfbaseline_fiximgandq.py  --data-root='../data/shapes' –imgfeature-prefix='../data/shapes/cifarfeatures' –expnum='exp11' –dembd=100 –dq=512</t>
+  </si>
+  <si>
+    <t>python tfbaseline_fiximgandq.py  --data-root='../data/shapes' –imgfeature-prefix='../data/shapes/cifarfeatures' –expnum='exp12' –dembd=100 –dq=256</t>
   </si>
 </sst>
 </file>
@@ -327,9 +464,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -350,6 +487,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -424,10 +568,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V57"/>
+  <dimension ref="A1:V50"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q45" activeCellId="0" sqref="Q45"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E44" activeCellId="0" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1198,176 +1342,568 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+    <row r="21" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C34" s="0" t="s">
+      <c r="B22" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D34" s="0" t="s">
+      <c r="D22" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E34" s="0" t="s">
+      <c r="E22" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F34" s="0" t="s">
+      <c r="F22" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G34" s="0" t="s">
+      <c r="G22" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="H34" s="0" t="s">
+      <c r="H22" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="I34" s="0" t="s">
+      <c r="I22" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="J34" s="0" t="s">
+      <c r="J22" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="K34" s="0" t="s">
+      <c r="K22" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="L34" s="0" t="s">
+      <c r="L22" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="M34" s="0" t="s">
+      <c r="M22" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="N34" s="0" t="s">
+      <c r="N22" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="O34" s="0" t="s">
+      <c r="O22" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="P34" s="0" t="s">
+      <c r="P22" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="Q34" s="0" t="s">
+      <c r="Q22" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="R34" s="0" t="s">
+      <c r="R22" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="S34" s="0" t="s">
+      <c r="S22" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="T34" s="0" t="s">
+      <c r="T22" s="0" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T25" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="V25" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K27" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="O27" s="0" t="n">
+        <v>0.666</v>
+      </c>
+      <c r="P27" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="S27" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="L28" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="O28" s="0" t="n">
+        <v>0.699</v>
+      </c>
+      <c r="P28" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>4800</v>
+      </c>
+      <c r="H29" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="I29" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K29" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="L29" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="G32" s="0" t="n">
+        <v>512</v>
+      </c>
+      <c r="H32" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="I32" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K32" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="L32" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="M32" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="N32" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="O32" s="0" t="n">
+        <v>0.616</v>
+      </c>
+      <c r="P32" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q32" s="0" t="n">
+        <v>0.633</v>
+      </c>
+      <c r="R32" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="S32" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="G33" s="0" t="n">
+        <v>4800</v>
+      </c>
+      <c r="H33" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="I33" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K33" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="L33" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="M33" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="O33" s="0" t="n">
+        <v>0.616</v>
+      </c>
+      <c r="P33" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q33" s="0" t="n">
+        <v>0.633</v>
+      </c>
+      <c r="R33" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="S33" s="0" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>20</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>31</v>
+        <v>74</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="G36" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="H36" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="I36" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K36" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="L36" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="M36" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="N36" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="O36" s="0" t="n">
+        <v>0.641</v>
+      </c>
+      <c r="P36" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q36" s="0" t="n">
+        <v>0.661</v>
+      </c>
+      <c r="R36" s="0" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>21</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E37" s="0" t="s">
         <v>24</v>
       </c>
       <c r="F37" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="G37" s="0" t="n">
+        <v>512</v>
+      </c>
+      <c r="H37" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="I37" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K37" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="L37" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="M37" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="T37" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="V37" s="0" t="s">
-        <v>79</v>
+      <c r="N37" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="O37" s="0" t="n">
+        <v>0.581</v>
+      </c>
+      <c r="P37" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q37" s="0" t="n">
+        <v>0.649</v>
+      </c>
+      <c r="R37" s="0" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>80</v>
+        <v>103</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="G38" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="H38" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="I38" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K38" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="L38" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="M38" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="O38" s="0" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="P38" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q38" s="0" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="R38" s="0" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>21</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="E39" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="F39" s="0" t="s">
-        <v>23</v>
+      <c r="F39" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="G39" s="0" t="n">
+        <v>512</v>
+      </c>
+      <c r="H39" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="I39" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J39" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="K39" s="0" t="s">
         <v>50</v>
       </c>
+      <c r="L39" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="M39" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="N39" s="0" t="n">
+        <v>100</v>
+      </c>
       <c r="O39" s="0" t="n">
-        <v>0.666</v>
+        <v>0.658</v>
       </c>
       <c r="P39" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="S39" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="L40" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="O40" s="0" t="n">
-        <v>0.699</v>
-      </c>
-      <c r="P40" s="0" t="s">
-        <v>83</v>
+        <v>109</v>
+      </c>
+      <c r="Q39" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="R39" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="T39" s="0" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>21</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="F41" s="0" t="s">
-        <v>23</v>
+        <v>113</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <v>50</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>4800</v>
+        <v>256</v>
       </c>
       <c r="H41" s="0" t="n">
         <v>256</v>
@@ -1379,35 +1915,160 @@
         <v>1</v>
       </c>
       <c r="K41" s="0" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="L41" s="0" t="s">
-        <v>64</v>
+        <v>83</v>
+      </c>
+      <c r="M41" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="N41" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="O41" s="0" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="P41" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q41" s="0" t="n">
+        <v>0.688</v>
+      </c>
+      <c r="R41" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="G42" s="0" t="n">
+        <v>512</v>
+      </c>
+      <c r="H42" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="I42" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K42" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="L42" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="M42" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="N42" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="O42" s="0" t="n">
+        <v>0.616</v>
+      </c>
+      <c r="P42" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q42" s="0" t="n">
+        <v>0.671</v>
+      </c>
+      <c r="R42" s="0" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>84</v>
+        <v>120</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="F43" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="G43" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="H43" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="I43" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K43" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="L43" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="M43" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="N43" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="O43" s="0" t="n">
+        <v>0.609</v>
+      </c>
+      <c r="P43" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q43" s="0" t="n">
+        <v>0.687</v>
+      </c>
+      <c r="R43" s="0" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>56</v>
+        <v>124</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>24</v>
+        <v>113</v>
       </c>
       <c r="F44" s="0" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G44" s="0" t="n">
         <v>512</v>
@@ -1425,109 +2086,97 @@
         <v>50</v>
       </c>
       <c r="L44" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M44" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="N44" s="0" t="s">
-        <v>87</v>
+        <v>125</v>
       </c>
       <c r="O44" s="0" t="n">
-        <v>0.616</v>
+        <v>0.6</v>
       </c>
       <c r="P44" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q44" s="0" t="n">
-        <v>0.633</v>
-      </c>
-      <c r="R44" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="S44" s="0" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="B45" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="C45" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="D45" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E45" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="F45" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="G45" s="0" t="n">
-        <v>4800</v>
-      </c>
-      <c r="H45" s="0" t="n">
-        <v>256</v>
-      </c>
-      <c r="I45" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K45" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="L45" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="M45" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="O45" s="0" t="n">
-        <v>0.616</v>
-      </c>
-      <c r="P45" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q45" s="0" t="n">
-        <v>0.633</v>
-      </c>
-      <c r="R45" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="S45" s="0" t="s">
-        <v>94</v>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>95</v>
+        <v>72</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="G47" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="H47" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="I47" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K47" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="M47" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="N47" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="O47" s="0" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="P47" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q47" s="0" t="n">
+        <v>0.672</v>
+      </c>
+      <c r="R47" s="0" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>71</v>
+      </c>
       <c r="B48" s="0" t="s">
         <v>21</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E48" s="0" t="s">
         <v>24</v>
       </c>
       <c r="F48" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G48" s="0" t="n">
-        <v>256</v>
+        <v>512</v>
       </c>
       <c r="H48" s="0" t="n">
         <v>256</v>
@@ -1541,25 +2190,46 @@
       <c r="K48" s="0" t="s">
         <v>36</v>
       </c>
+      <c r="M48" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="N48" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="O48" s="0" t="n">
+        <v>0.633</v>
+      </c>
+      <c r="P48" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q48" s="0" t="n">
+        <v>0.637</v>
+      </c>
+      <c r="R48" s="0" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>67</v>
+      </c>
       <c r="B49" s="0" t="s">
-        <v>21</v>
+        <v>131</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E49" s="0" t="s">
         <v>24</v>
       </c>
       <c r="F49" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G49" s="0" t="n">
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="H49" s="0" t="n">
         <v>256</v>
@@ -1571,27 +2241,48 @@
         <v>1</v>
       </c>
       <c r="K49" s="0" t="s">
-        <v>36</v>
+        <v>50</v>
+      </c>
+      <c r="M49" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="N49" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="O49" s="0" t="n">
+        <v>0.602</v>
+      </c>
+      <c r="P49" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q49" s="0" t="n">
+        <v>0.685</v>
+      </c>
+      <c r="R49" s="0" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>58</v>
+      </c>
       <c r="B50" s="0" t="s">
-        <v>21</v>
+        <v>131</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E50" s="0" t="s">
         <v>24</v>
       </c>
       <c r="F50" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G50" s="0" t="n">
-        <v>256</v>
+        <v>512</v>
       </c>
       <c r="H50" s="0" t="n">
         <v>256</v>
@@ -1605,188 +2296,23 @@
       <c r="K50" s="0" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C51" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="D51" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="E51" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="F51" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="G51" s="0" t="n">
-        <v>512</v>
-      </c>
-      <c r="H51" s="0" t="n">
-        <v>256</v>
-      </c>
-      <c r="I51" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J51" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K51" s="0" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C54" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="D54" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="E54" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="F54" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="G54" s="0" t="n">
-        <v>256</v>
-      </c>
-      <c r="H54" s="0" t="n">
-        <v>256</v>
-      </c>
-      <c r="I54" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J54" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K54" s="0" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C55" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="D55" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="E55" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="F55" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="G55" s="0" t="n">
-        <v>512</v>
-      </c>
-      <c r="H55" s="0" t="n">
-        <v>256</v>
-      </c>
-      <c r="I55" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J55" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K55" s="0" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="C56" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="D56" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="E56" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="F56" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="G56" s="0" t="n">
-        <v>256</v>
-      </c>
-      <c r="H56" s="0" t="n">
-        <v>256</v>
-      </c>
-      <c r="I56" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J56" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K56" s="0" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="B57" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="C57" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="D57" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="E57" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="F57" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="G57" s="0" t="n">
-        <v>512</v>
-      </c>
-      <c r="H57" s="0" t="n">
-        <v>256</v>
-      </c>
-      <c r="I57" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J57" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K57" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="N57" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="O57" s="0" t="n">
+      <c r="M50" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="N50" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="O50" s="0" t="n">
         <v>0.59</v>
       </c>
-      <c r="P57" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q57" s="0" t="n">
+      <c r="P50" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q50" s="0" t="n">
         <v>0.645</v>
       </c>
-      <c r="R57" s="0" t="s">
-        <v>99</v>
+      <c r="R50" s="0" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -1798,4 +2324,60 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>138</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>